--- a/configuration/OrganizationData.xlsx
+++ b/configuration/OrganizationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\semester5\SoftwareTesting\PROJECT\New folder\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF56769D-4C35-4945-AFAA-0092097B7E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90E4494-76A6-480F-A68F-533797A05A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60620988-FDF3-48DA-A999-D8A39859979E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>first</t>
   </si>
@@ -129,9 +129,6 @@
     <t>organization5@gmail.com</t>
   </si>
   <si>
-    <t>organization6@gmail.com</t>
-  </si>
-  <si>
     <t>organization7@gmail.com</t>
   </si>
   <si>
@@ -205,6 +202,18 @@
   </si>
   <si>
     <t>password_org</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>Organization created successfully</t>
+  </si>
+  <si>
+    <t>The email has already been taken.</t>
+  </si>
+  <si>
+    <t>The phone number has already been taken.</t>
   </si>
 </sst>
 </file>
@@ -576,18 +585,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BA8369-C531-49A2-886F-0681FCCF657B}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6328125" customWidth="1"/>
+    <col min="20" max="20" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -598,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -645,8 +656,11 @@
       <c r="S1" t="s">
         <v>15</v>
       </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -663,49 +677,52 @@
         <v>123456</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>7125378123</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>1024</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
       <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>55</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
-        <v>57</v>
+      <c r="T2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -716,55 +733,58 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>123456</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>7125378124</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1024</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>55</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s">
-        <v>57</v>
+      <c r="T3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -775,55 +795,58 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>123456</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>7125378125</v>
+        <v>7125378123</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>1024</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
         <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>55</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>56</v>
       </c>
-      <c r="S4" t="s">
-        <v>57</v>
+      <c r="T4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -834,55 +857,58 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>123456</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>7125378126</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>1024</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
         <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>55</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" t="s">
-        <v>57</v>
+      <c r="T5" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -893,52 +919,55 @@
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>123456</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>7125378127</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>1024</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
       <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>51</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>55</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>56</v>
       </c>
-      <c r="S6" t="s">
-        <v>57</v>
+      <c r="T6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
